--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>768692.0452771703</v>
+        <v>765723.2162730402</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692571</v>
+        <v>7757679.400320136</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11929921.450907</v>
+        <v>11930665.10691905</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>154.8481837815111</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>215.4905297143698</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>84.84244993117463</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>135.4095352681599</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>82.85220836428991</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5016744085787</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>252.6962967371231</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5687190723336</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>46.99007124656703</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492362</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>97.27989568773961</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396197</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="C16" t="n">
-        <v>117.5897932489613</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1901,7 +1901,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>210.4215906786158</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>194.0338686928868</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,10 +2293,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.18387181302852</v>
+        <v>198.4011868502816</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>113.2541744914</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250815</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409991</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.5103646250794</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004742</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,10 +2767,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>6.055901306634439</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>92.09843453981398</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>271.1280510637121</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>60.31323908025479</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3238,7 +3238,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.5032798444907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.820581188166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286618</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672379</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>53.68626314394723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>84.56702400647431</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.6947878603132</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698773</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G38" t="n">
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>282.026047627202</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081959</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668792</v>
+        <v>175.5610162827833</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835698</v>
+        <v>162.9758571994738</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031543</v>
+        <v>144.3445091190583</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.2598730078732</v>
+        <v>141.1500841237772</v>
       </c>
       <c r="G40" t="n">
-        <v>86.60065225414171</v>
+        <v>20.69089151859625</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768958</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602547</v>
+        <v>62.90978769192953</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434009</v>
+        <v>177.0675244593049</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477037</v>
+        <v>213.2110305636078</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>281.9144876492664</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087699</v>
+        <v>247.866679424674</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215329</v>
+        <v>282.252034437437</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739791</v>
+        <v>221.4386914898831</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370367</v>
+        <v>214.3136894529408</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541847</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973855</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2068.340331778365</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1715.571676508251</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1342.105918247171</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.105918247171</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>769.0955750279682</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>358.1096702383606</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>344.1862661769515</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2558.431302190847</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2558.431302190847</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2304.669516828938</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2304.669516828938</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.900861558824</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.435103297744</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1578.435103297744</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>320.3920853967602</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>320.3920853967602</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.385938321512</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C8" t="n">
-        <v>1387.385938321512</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1029.120239714762</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>643.3319871165177</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>636.3864863673142</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646714</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.985778385634</v>
+        <v>1161.108455511198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.985778385634</v>
+        <v>770.969123535386</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>680.6642657755584</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>466.3758425937211</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>466.3758425937211</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>466.3758425937211</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2215.249704195857</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2985.817436667298</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.759738273008</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C13" t="n">
-        <v>193.8235553451011</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>193.8235553451011</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>193.8235553451011</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5197,10 +5197,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862234</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862234</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.74639343176</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557403</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351516</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145555</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>583.5523174165381</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.759738273008</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5264,10 +5264,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2368.748013620957</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>3254.420735780954</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,28 +5367,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.5623770791274</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7848081407827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5440,10 +5440,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1577.410141987875</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W16" t="n">
-        <v>1287.992971950915</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X16" t="n">
-        <v>1060.003421052897</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y16" t="n">
-        <v>839.2108419093671</v>
+        <v>171.0738540998325</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,52 +5513,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2016.310259422546</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2996.062531649192</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O17" t="n">
-        <v>3876.027181978647</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4270.801548335825</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089898</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,7 +5631,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>490.916444624778</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>490.916444624778</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>340.7998052124423</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,19 +5674,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1552.110520639999</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1263.007653765643</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1008.323165559756</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>718.9059955227954</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X19" t="n">
-        <v>490.916444624778</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y19" t="n">
-        <v>490.916444624778</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="20">
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M20" t="n">
-        <v>2628.734306600803</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N20" t="n">
-        <v>3175.513123659585</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.4807149410337</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>540.4807149410337</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>390.364075528698</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>998.7893082582085</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X22" t="n">
-        <v>770.7997573601911</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y22" t="n">
-        <v>722.1291797712734</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>864.5728002389868</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1729.091615892342</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M23" t="n">
-        <v>2707.64191872217</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.420735780953</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6017,22 +6017,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,7 +6096,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
         <v>2043.809373447819</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.6138567886371</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
         <v>95.56103444839442</v>
@@ -6148,19 +6148,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W25" t="n">
-        <v>931.4530568143261</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X25" t="n">
-        <v>817.0549007624069</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y25" t="n">
-        <v>596.2623216188767</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277725</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176184</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770972</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2183.715908442896</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3163.468180669542</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3666.440651548878</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946816</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919362</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320268</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.476988454342</v>
       </c>
       <c r="N27" t="n">
         <v>1715.000032008796</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>708.7441371531723</v>
+        <v>210.217968413121</v>
       </c>
       <c r="C28" t="n">
-        <v>539.8079542252655</v>
+        <v>210.217968413121</v>
       </c>
       <c r="D28" t="n">
-        <v>389.6913148129297</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927019</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384225</v>
       </c>
       <c r="V28" t="n">
-        <v>1446.94343723168</v>
+        <v>909.2731541783386</v>
       </c>
       <c r="W28" t="n">
-        <v>1157.52626719472</v>
+        <v>619.855984141378</v>
       </c>
       <c r="X28" t="n">
-        <v>929.5367162967025</v>
+        <v>391.8664332433607</v>
       </c>
       <c r="Y28" t="n">
-        <v>708.7441371531723</v>
+        <v>391.8664332433607</v>
       </c>
     </row>
     <row r="29">
@@ -6440,49 +6440,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427196</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196075</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025904</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.00145687072</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6491,16 +6491,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
         <v>1715.000032008795</v>
@@ -6573,10 +6573,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
         <v>1554.419908487875</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>481.6968904858348</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>481.6968904858348</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>481.6968904858348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6622,13 +6622,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208129</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838522</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858348</v>
+        <v>635.4064359321671</v>
       </c>
       <c r="Y31" t="n">
-        <v>481.6968904858348</v>
+        <v>414.6138567886371</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1784.466183544591</v>
       </c>
       <c r="M32" t="n">
-        <v>2536.15366264131</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>3082.932479700092</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3585.904950579429</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
-        <v>4299.260038026375</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.0900014994929</v>
+        <v>472.0994283734977</v>
       </c>
       <c r="C34" t="n">
-        <v>410.153818571586</v>
+        <v>472.0994283734977</v>
       </c>
       <c r="D34" t="n">
-        <v>410.153818571586</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E34" t="n">
-        <v>410.153818571586</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
         <v>263.2638710736754</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1385.724257814701</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W34" t="n">
-        <v>1096.307087777741</v>
+        <v>874.5404723472675</v>
       </c>
       <c r="X34" t="n">
-        <v>868.3175368797233</v>
+        <v>874.5404723472675</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7384663297327</v>
+        <v>653.7478932037374</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.005340067275</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464048</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>422.5594898197619</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>892.1898736074438</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>94.85569562249447</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>242.5036773743404</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>242.5036773743404</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L36" t="n">
-        <v>733.2360102180918</v>
+        <v>562.260288058861</v>
       </c>
       <c r="M36" t="n">
-        <v>1325.25436447022</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N36" t="n">
-        <v>1947.350327869556</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O36" t="n">
-        <v>2287.893191372974</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.893191372974</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>716.4995229934063</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="C37" t="n">
-        <v>547.6742379282225</v>
+        <v>326.1595320196934</v>
       </c>
       <c r="D37" t="n">
-        <v>397.6684963786098</v>
+        <v>326.1595320196934</v>
       </c>
       <c r="E37" t="n">
-        <v>397.6684963786098</v>
+        <v>326.1595320196934</v>
       </c>
       <c r="F37" t="n">
-        <v>343.4399477483601</v>
+        <v>179.2695845217831</v>
       </c>
       <c r="G37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.336650785662</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985991</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769882</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016702</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813948</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2179.442602616976</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1890.477286794426</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1635.903696451262</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1346.597424277024</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X37" t="n">
-        <v>1118.71877124173</v>
+        <v>897.5367589213703</v>
       </c>
       <c r="Y37" t="n">
-        <v>898.037089960923</v>
+        <v>676.74417977784</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>378.6914586310042</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.312538547085</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.942922334767</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.46726477958</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969361</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.8612304285</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115848</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.85569562249448</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5036773743405</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0124199376994</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="L39" t="n">
-        <v>1063.744752781451</v>
+        <v>585.6197135698808</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.763107033579</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N39" t="n">
-        <v>1868.309672946898</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.309672946898</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.893191372974</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.7224063358364</v>
+        <v>567.7486935666633</v>
       </c>
       <c r="C40" t="n">
-        <v>685.9894304938466</v>
+        <v>403.1266155873967</v>
       </c>
       <c r="D40" t="n">
-        <v>540.0759981674281</v>
+        <v>257.3240811237013</v>
       </c>
       <c r="E40" t="n">
-        <v>540.0759981674281</v>
+        <v>257.3240811237013</v>
       </c>
       <c r="F40" t="n">
-        <v>397.389257755435</v>
+        <v>114.7482385744315</v>
       </c>
       <c r="G40" t="n">
-        <v>309.9138514381201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>172.2443415624678</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024328</v>
+        <v>177.0587253013232</v>
       </c>
       <c r="K40" t="n">
-        <v>440.666639437904</v>
+        <v>440.9157065320494</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859457</v>
+        <v>832.905778875346</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095313</v>
+        <v>1256.363625179968</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151927</v>
+        <v>1675.287745231837</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431864</v>
+        <v>2046.538456507029</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532976</v>
+        <v>2341.297145603397</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351319</v>
+        <v>2463.238533416994</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.681182395738</v>
+        <v>2399.693293324136</v>
       </c>
       <c r="S40" t="n">
-        <v>2219.714199220585</v>
+        <v>2220.837208011706</v>
       </c>
       <c r="T40" t="n">
-        <v>2004.238624020885</v>
+        <v>2005.472530674728</v>
       </c>
       <c r="U40" t="n">
-        <v>2004.238624020885</v>
+        <v>1720.710421938096</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.757342900915</v>
+        <v>1470.340038680849</v>
       </c>
       <c r="W40" t="n">
-        <v>1468.543379949872</v>
+        <v>1185.236973592529</v>
       </c>
       <c r="X40" t="n">
-        <v>1244.757036137772</v>
+        <v>961.5615276431522</v>
       </c>
       <c r="Y40" t="n">
-        <v>1028.167664080159</v>
+        <v>745.0830534482625</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>337.9118393841223</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>337.9118393841223</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>929.9301936362499</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>921.9831621891587</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>778.3953859427372</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>653.6271532118869</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>531.0624663109793</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>409.5209254945544</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.1308270705345</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896366</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>584.5806809953583</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1798.694998646822</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891587</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427372</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118869</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109793</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945547</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>226.0494095077361</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>180.7381496078621</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>342.3170758598129</v>
+        <v>123.4719563470478</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.9664098701129</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>19.79750571619286</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>79.70465870845248</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>248.8012738805256</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.6385654279035</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>246.4545694808427</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>398.2509825792557</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.5040408147563</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>49.74439522492622</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>49.74439522492423</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.48912964370422</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>48.14115233519163</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="C16" t="n">
-        <v>49.65702784966653</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>9.12735859755341</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>92.48912964370425</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.4007815390663</v>
+        <v>20.1834665018132</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>112.4554808976372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.10510839313292</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983816</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>246.0817420171936</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>54.33552810675519</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>15.39494727287894</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>88.30223393795757</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.0813735076041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>91.62499599488821</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>80.97502887069261</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315111</v>
+        <v>142.1629987474151</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>74.78022560796714</v>
+        <v>140.5801974594166</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.1830258927999</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>77.53361284525501</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333624</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1012685.856912097</v>
+        <v>1012626.058203352</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1015583.505506229</v>
+        <v>1015680.754087161</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1029961.876120428</v>
+        <v>1030574.549135508</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1029961.876120428</v>
+        <v>1030574.549135508</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>410520.8849321416</v>
+      </c>
+      <c r="C2" t="n">
         <v>410520.8849321415</v>
-      </c>
-      <c r="C2" t="n">
-        <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321415</v>
@@ -26323,37 +26323,37 @@
         <v>397081.786886983</v>
       </c>
       <c r="F2" t="n">
+        <v>397081.7868869831</v>
+      </c>
+      <c r="G2" t="n">
         <v>397081.7868869829</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>397081.786886983</v>
       </c>
-      <c r="H2" t="n">
-        <v>397081.7868869831</v>
-      </c>
       <c r="I2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.7868869828</v>
       </c>
       <c r="J2" t="n">
-        <v>397081.786886983</v>
+        <v>397081.7868869833</v>
       </c>
       <c r="K2" t="n">
-        <v>397081.7868869831</v>
+        <v>397081.7868869829</v>
       </c>
       <c r="L2" t="n">
         <v>397081.786886983</v>
       </c>
       <c r="M2" t="n">
-        <v>403372.898017215</v>
+        <v>403341.4885592795</v>
       </c>
       <c r="N2" t="n">
-        <v>404531.9574548673</v>
+        <v>404563.3669128027</v>
       </c>
       <c r="O2" t="n">
+        <v>410520.8849321413</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321415</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925922</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>8.276515472971369e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485552</v>
+        <v>312970.0160233572</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769806</v>
+        <v>3416.771119323068</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668368</v>
+        <v>16659.16697241322</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709185</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709196</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.96221767488</v>
+        <v>5069.915760662892</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725509</v>
+        <v>6475.275729222516</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975158</v>
+        <v>13327.39591958994</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-454512.6687382421</v>
       </c>
       <c r="C6" t="n">
-        <v>135455.2104763025</v>
+        <v>135455.2104763023</v>
       </c>
       <c r="D6" t="n">
         <v>135455.2104763023</v>
       </c>
       <c r="E6" t="n">
-        <v>-448298.7533572293</v>
+        <v>-448365.9488474551</v>
       </c>
       <c r="F6" t="n">
-        <v>279078.6606361773</v>
+        <v>279011.4651459518</v>
       </c>
       <c r="G6" t="n">
-        <v>279078.6606361775</v>
+        <v>279011.4651459515</v>
       </c>
       <c r="H6" t="n">
-        <v>279078.6606361776</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="I6" t="n">
-        <v>279078.6606361774</v>
+        <v>279011.4651459514</v>
       </c>
       <c r="J6" t="n">
-        <v>102655.4414435847</v>
+        <v>102588.2459533597</v>
       </c>
       <c r="K6" t="n">
-        <v>279078.6606361774</v>
+        <v>279011.4651459507</v>
       </c>
       <c r="L6" t="n">
-        <v>279078.6606361774</v>
+        <v>279011.4651459517</v>
       </c>
       <c r="M6" t="n">
-        <v>-15658.39926918798</v>
+        <v>-15664.37966384343</v>
       </c>
       <c r="N6" t="n">
-        <v>293544.9937915552</v>
+        <v>293352.4373528839</v>
       </c>
       <c r="O6" t="n">
-        <v>272080.3227817909</v>
+        <v>277494.5775336069</v>
       </c>
       <c r="P6" t="n">
-        <v>294908.2611784748</v>
+        <v>294153.7445060203</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26756,13 +26756,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
+        <v>1089.776700593297</v>
+      </c>
+      <c r="K3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962258</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698164</v>
+        <v>20.82395871551652</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>268.2643481230875</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-6.926460194910471e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625287693</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>172.9040746886238</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>170.7474089416838</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>201.6805484054164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>188.5132374961972</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>91.56350444468163</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.36203824822863</v>
       </c>
       <c r="W7" t="n">
-        <v>137.0213239280123</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>161.0878732836719</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.162381606135398</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.67512073359083</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.812008207540776e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30232,13 +30232,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.53704437734234</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058065</v>
+        <v>4.270963899154031</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32567,7 +32567,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681594</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844663</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953984</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003805</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623186</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574987</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099051</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746407</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781685</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563566</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806941</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345274</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175225</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353191</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138791</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233468</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837918</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970244</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002922</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987483</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742012</v>
       </c>
       <c r="J28" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098817</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316429</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883112</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085998</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712207</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553032</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112287</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33503,10 +33503,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33731,16 +33731,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>611.697753423565</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33749,7 +33749,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>486.5789348519376</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377427</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122284</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874066</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830432</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364266</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293311</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.145364522961</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086955</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687526</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148608</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540906</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735819</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848226</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745726</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504303</v>
+        <v>292.7152564624552</v>
       </c>
       <c r="N39" t="n">
-        <v>346.0352130058777</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982455</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34044,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548568</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284928</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900887</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.088578864062</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265023</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416876</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465964</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282425</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561743</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>383.3206901440486</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>395.1848490935921</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>476.0648089385468</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>481.519312750372</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>778.3512449206476</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>579.500135827234</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789548</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>894.6189112727244</v>
+        <v>675.7737917599593</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>611.8392473737334</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.7607146738324</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>475.387620108525</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>587.7576595966716</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36215,7 +36215,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>585.9925604359262</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427827</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407859</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427818</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N26" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248948</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882183</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>534.4005516472747</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636237</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152069</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609601</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340049</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013285</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004585</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.11240345258</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.635950985962</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127268</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306608</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443193</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934835</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789349</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427827</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>798.7564048937542</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36993,22 +36993,22 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>853.8410969715878</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>358.2983456184758</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37151,10 +37151,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>332.0634613856465</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37327,7 +37327,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>473.1433736436909</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37397,7 +37397,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>343.9826904074931</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475633</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607203</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380627</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020584</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>794.4766961512943</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870087</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404113</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053135</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104636</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946984</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>150.5812225404369</v>
       </c>
       <c r="N39" t="n">
-        <v>214.6935009225444</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839153</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970745</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571861</v>
+        <v>84.05088600981452</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792639</v>
+        <v>266.5222032633598</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394361</v>
+        <v>395.949568023532</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034009</v>
+        <v>427.7351982874968</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359742</v>
+        <v>423.1556768200701</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756941</v>
+        <v>375.0007184597899</v>
       </c>
       <c r="P40" t="n">
-        <v>297.626260708194</v>
+        <v>297.7360495922899</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.063330119538</v>
+        <v>123.1731190036339</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>245.4792511696896</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>253.0508151715738</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5104291586726</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>338.9230683059276</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
